--- a/data-export/export_202204/sum_tagged_nonagri_detail.xlsx
+++ b/data-export/export_202204/sum_tagged_nonagri_detail.xlsx
@@ -1176,13 +1176,13 @@
         </is>
       </c>
       <c r="H15">
-        <v>11319299.44444444</v>
+        <v>13282083</v>
       </c>
       <c r="I15">
-        <v>9451558.203333329</v>
+        <v>10966228.95555555</v>
       </c>
       <c r="J15">
-        <v>1867741.241111111</v>
+        <v>2315854.044444444</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>152634.3655555556</v>
       </c>
       <c r="R15">
-        <v>201</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16">
@@ -1236,13 +1236,13 @@
         </is>
       </c>
       <c r="H16">
-        <v>11319299.44444444</v>
+        <v>13282083</v>
       </c>
       <c r="I16">
-        <v>9451558.203333329</v>
+        <v>10966228.95555555</v>
       </c>
       <c r="J16">
-        <v>1867741.241111111</v>
+        <v>2315854.044444444</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>152634.3655555556</v>
       </c>
       <c r="R16">
-        <v>201</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17">
@@ -1296,13 +1296,13 @@
         </is>
       </c>
       <c r="H17">
-        <v>11319299.44444444</v>
+        <v>13282083</v>
       </c>
       <c r="I17">
-        <v>9451558.203333329</v>
+        <v>10966228.95555555</v>
       </c>
       <c r="J17">
-        <v>1867741.241111111</v>
+        <v>2315854.044444444</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>152634.3655555556</v>
       </c>
       <c r="R17">
-        <v>201</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18">
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>780</v>
+        <v>751</v>
       </c>
     </row>
     <row r="19">
@@ -1576,13 +1576,13 @@
         </is>
       </c>
       <c r="H22">
-        <v>24410044.19444444</v>
+        <v>29107755.25</v>
       </c>
       <c r="I22">
-        <v>19596075.53333335</v>
+        <v>23173893.70555557</v>
       </c>
       <c r="J22">
-        <v>4813968.66111111</v>
+        <v>5933861.544444445</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>613051.2680555559</v>
       </c>
       <c r="R22">
-        <v>322</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23">
@@ -1636,13 +1636,13 @@
         </is>
       </c>
       <c r="H23">
-        <v>12026827.19444444</v>
+        <v>14533633.25</v>
       </c>
       <c r="I23">
-        <v>10021198.90583333</v>
+        <v>11998288.77305555</v>
       </c>
       <c r="J23">
-        <v>2005628.288611111</v>
+        <v>2535344.476944443</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>153488.4680555555</v>
       </c>
       <c r="R23">
-        <v>211</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="H26">
-        <v>107487943.4244445</v>
+        <v>112729676.98</v>
       </c>
       <c r="I26">
-        <v>74672057.73805556</v>
+        <v>78712295.02527781</v>
       </c>
       <c r="J26">
-        <v>32815885.6863889</v>
+        <v>34017381.95472223</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>613905.3705555558</v>
       </c>
       <c r="R26">
-        <v>334</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27">
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1281</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="28">
@@ -6488,13 +6488,13 @@
         </is>
       </c>
       <c r="H96">
-        <v>19409137704.44</v>
+        <v>19559137704.43999</v>
       </c>
       <c r="I96">
-        <v>19169055783.40999</v>
+        <v>19274055783.40999</v>
       </c>
       <c r="J96">
-        <v>129817966.16</v>
+        <v>174817966.16</v>
       </c>
       <c r="K96">
         <v>110263954.87</v>
@@ -6518,7 +6518,7 @@
         <v>13979107.6</v>
       </c>
       <c r="R96">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97">
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98">
@@ -6750,16 +6750,16 @@
         </is>
       </c>
       <c r="H100">
-        <v>82344984</v>
+        <v>83359934</v>
       </c>
       <c r="I100">
-        <v>69993236.40000001</v>
+        <v>70855943.90000001</v>
       </c>
       <c r="J100">
-        <v>11478378.1</v>
+        <v>11579873.1</v>
       </c>
       <c r="K100">
-        <v>873369.5</v>
+        <v>924117</v>
       </c>
       <c r="L100">
         <v>4853526.95</v>
@@ -6780,7 +6780,7 @@
         <v>728029.0499999998</v>
       </c>
       <c r="R100">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="R103">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104">
@@ -8672,16 +8672,16 @@
         </is>
       </c>
       <c r="H129">
-        <v>442845186.54</v>
+        <v>443245185.54</v>
       </c>
       <c r="I129">
-        <v>328329354.38</v>
+        <v>328629353.63</v>
       </c>
       <c r="J129">
         <v>222500</v>
       </c>
       <c r="K129">
-        <v>114293332.16</v>
+        <v>114393331.91</v>
       </c>
       <c r="L129">
         <v>410672809.5799999</v>
@@ -8702,7 +8702,7 @@
         <v>104781078.14</v>
       </c>
       <c r="R129">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="130">
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="R131">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132">
@@ -9710,10 +9710,10 @@
         </is>
       </c>
       <c r="H145">
-        <v>10967610516.72</v>
+        <v>10989247331.39</v>
       </c>
       <c r="I145">
-        <v>4627983702.36</v>
+        <v>4649620517.03</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>4230484908</v>
       </c>
       <c r="R145">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146">
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="R146">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -10642,10 +10642,10 @@
         </is>
       </c>
       <c r="H159">
-        <v>313691817.3100001</v>
+        <v>313884512.1100001</v>
       </c>
       <c r="I159">
-        <v>278472314.2100001</v>
+        <v>278665009.0100001</v>
       </c>
       <c r="J159">
         <v>16326362.52</v>
@@ -10672,7 +10672,7 @@
         <v>19770230.49999999</v>
       </c>
       <c r="R159">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160">
@@ -10866,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="R162">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163">
@@ -12360,13 +12360,13 @@
         </is>
       </c>
       <c r="H185">
-        <v>4471032690.109998</v>
+        <v>4471252422.029998</v>
       </c>
       <c r="I185">
-        <v>4247481051.499999</v>
+        <v>4247689796.819999</v>
       </c>
       <c r="J185">
-        <v>190113002.4600003</v>
+        <v>190123989.0600003</v>
       </c>
       <c r="K185">
         <v>33438636.14999998</v>
@@ -12390,7 +12390,7 @@
         <v>168670088.1000001</v>
       </c>
       <c r="R185">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="186">
@@ -12516,7 +12516,7 @@
         <v>0</v>
       </c>
       <c r="R187">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="188">
@@ -16428,13 +16428,13 @@
         </is>
       </c>
       <c r="H246">
-        <v>4936699794.180502</v>
+        <v>4941397505.236057</v>
       </c>
       <c r="I246">
-        <v>4104596215.091422</v>
+        <v>4108174033.263645</v>
       </c>
       <c r="J246">
-        <v>786729835.3190731</v>
+        <v>787849728.2024063</v>
       </c>
       <c r="K246">
         <v>45373743.77</v>
@@ -16458,7 +16458,7 @@
         <v>468848956.478887</v>
       </c>
       <c r="R246">
-        <v>6746</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="247">
@@ -16496,13 +16496,13 @@
         </is>
       </c>
       <c r="H247">
-        <v>73755067.77315427</v>
+        <v>75717851.32870987</v>
       </c>
       <c r="I247">
-        <v>61281165.10895754</v>
+        <v>62795835.86117981</v>
       </c>
       <c r="J247">
-        <v>12473902.66419659</v>
+        <v>12922015.46752992</v>
       </c>
       <c r="K247">
         <v>0</v>
@@ -16526,7 +16526,7 @@
         <v>1630621.218117917</v>
       </c>
       <c r="R247">
-        <v>2355</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="248">
@@ -16700,13 +16700,13 @@
         </is>
       </c>
       <c r="H250">
-        <v>154129120.1867647</v>
+        <v>158826831.2423202</v>
       </c>
       <c r="I250">
-        <v>127496054.0880752</v>
+        <v>131073872.2602975</v>
       </c>
       <c r="J250">
-        <v>26633066.09868915</v>
+        <v>27752958.98202248</v>
       </c>
       <c r="K250">
         <v>0</v>
@@ -16730,7 +16730,7 @@
         <v>4631149.103883023</v>
       </c>
       <c r="R250">
-        <v>5555</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="251">
@@ -16788,7 +16788,7 @@
         <v>0</v>
       </c>
       <c r="R251">
-        <v>1229</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="252">
@@ -16894,13 +16894,13 @@
         </is>
       </c>
       <c r="H253">
-        <v>653766826.7190342</v>
+        <v>654310849.2190342</v>
       </c>
       <c r="I253">
-        <v>537761244.4020455</v>
+        <v>538223663.5170459</v>
       </c>
       <c r="J253">
-        <v>116005582.3169877</v>
+        <v>116087185.7019877</v>
       </c>
       <c r="K253">
         <v>0</v>
@@ -16924,7 +16924,7 @@
         <v>89511155.91850129</v>
       </c>
       <c r="R253">
-        <v>2277</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="254">
@@ -16962,13 +16962,13 @@
         </is>
       </c>
       <c r="H254">
-        <v>24163076.72052039</v>
+        <v>24707099.22052039</v>
       </c>
       <c r="I254">
-        <v>20151717.87814229</v>
+        <v>20614136.99314228</v>
       </c>
       <c r="J254">
-        <v>4011358.842378105</v>
+        <v>4092962.227378105</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -16992,7 +16992,7 @@
         <v>290012.4135368451</v>
       </c>
       <c r="R254">
-        <v>2242</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="255">
@@ -17050,7 +17050,7 @@
         <v>0</v>
       </c>
       <c r="R255">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="256">
@@ -17836,13 +17836,13 @@
         </is>
       </c>
       <c r="H267">
-        <v>7715645415.713041</v>
+        <v>7715751927.713041</v>
       </c>
       <c r="I267">
-        <v>6248821541.77494</v>
+        <v>6248912076.97494</v>
       </c>
       <c r="J267">
-        <v>1446367633.302084</v>
+        <v>1446383610.102084</v>
       </c>
       <c r="K267">
         <v>20456240.636</v>
@@ -17866,7 +17866,7 @@
         <v>776808684.3345363</v>
       </c>
       <c r="R267">
-        <v>9151</v>
+        <v>9152</v>
       </c>
     </row>
     <row r="268">
@@ -17992,7 +17992,7 @@
         <v>0</v>
       </c>
       <c r="R269">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="270">
